--- a/HW_7/results/summary.xlsx
+++ b/HW_7/results/summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -56,6 +56,16 @@
   </si>
   <si>
     <t xml:space="preserve">Bigrams+Trigrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:
+ES was used for generating unigrams
+Since this part was mandatory for the
+Assignment.
+For the extrax credit part 
+aka. other types of ngrams, 
+CountVectorizer was used instead of 
+ES to reduce the complexity.</t>
   </si>
   <si>
     <t xml:space="preserve">DecisionTree</t>
@@ -72,11 +82,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -93,13 +104,24 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,12 +167,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -162,6 +188,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -170,18 +256,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -215,13 +301,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.712778080328111</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.862569756119036</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.994092127302656</v>
+        <v>0.995004112896505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,22 +380,32 @@
         <v>0.920406377824725</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.838570778824403</v>
+        <v>0.375</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.914561432972286</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.978563243121571</v>
-      </c>
+        <v>0.979282320595174</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
@@ -324,6 +420,9 @@
       <c r="E13" s="1" t="n">
         <v>0.937437841266809</v>
       </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
@@ -338,6 +437,9 @@
       <c r="E14" s="1" t="n">
         <v>0.775972464373322</v>
       </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -352,6 +454,9 @@
       <c r="E15" s="1" t="n">
         <v>0.981196008835012</v>
       </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
@@ -366,6 +471,9 @@
       <c r="E16" s="1" t="n">
         <v>0.982599000606557</v>
       </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
@@ -380,23 +488,39 @@
       <c r="E17" s="1" t="n">
         <v>0.937341081182418</v>
       </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.703102703536581</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.870035693817532</v>
+        <v>0.760416666666667</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.975375569712303</v>
-      </c>
+        <v>0.97672564355912</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
@@ -469,8 +593,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G11:I20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/HW_7/results/summary.xlsx
+++ b/HW_7/results/summary.xlsx
@@ -82,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,11 +103,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,13 +253,13 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.67"/>
@@ -301,13 +296,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.333333333333333</v>
+        <v>0.765457924856257</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.708333333333333</v>
+        <v>0.857132882510397</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.995004112896505</v>
+        <v>0.99534477899514</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,13 +390,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.375</v>
+        <v>0.862512572485768</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.708333333333333</v>
+        <v>0.914963697533561</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.979282320595174</v>
+        <v>0.977491238547288</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -510,13 +505,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.772759524525633</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.760416666666667</v>
+        <v>0.868143743394946</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.97672564355912</v>
+        <v>0.977545031188819</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
